--- a/Modelagem.xlsx
+++ b/Modelagem.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\T14_Logica\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nova pasta\T14_Logica\Pedro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{423FF475-692C-4F56-9156-6BB43EDFDA24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA1F78-A9E6-49EB-AE06-B24EAAC39C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{3DF4FEE4-5CAB-4C9D-AB68-AB1CB0C932BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{3DF4FEE4-5CAB-4C9D-AB68-AB1CB0C932BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Planilha2" sheetId="2" r:id="rId2"/>
+    <sheet name="SQLServer" sheetId="2" r:id="rId2"/>
+    <sheet name="MySql" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="103">
   <si>
     <t>DER</t>
   </si>
@@ -340,6 +341,12 @@
   </si>
   <si>
     <t>,</t>
+  </si>
+  <si>
+    <t>auto_increment</t>
+  </si>
+  <si>
+    <t>timestamp</t>
   </si>
 </sst>
 </file>
@@ -910,7 +917,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DC643D6-9AEB-418C-A4AA-B20C07B35E1F}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
@@ -1840,4 +1847,948 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DAB220-43B6-41CC-9DB7-7DD5443FBA36}">
+  <dimension ref="A1:F89"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E14" s="7"/>
+      <c r="F14" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3"/>
+      <c r="B20" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="7"/>
+      <c r="F27" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="7"/>
+      <c r="F28" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="7"/>
+      <c r="F29" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="7"/>
+      <c r="F30" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="3"/>
+      <c r="B31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="33" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="13"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="7"/>
+      <c r="F36" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="7"/>
+      <c r="F38" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="7"/>
+      <c r="F39" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="7"/>
+      <c r="F40" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="7"/>
+      <c r="F41" s="2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3"/>
+      <c r="B42" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="13"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="B45" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="B49" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="3"/>
+      <c r="B51" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B53" s="13"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="B57" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="B59" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="B61" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="B63" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="B65" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="B66" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="B67" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="B68" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="B69" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="B70" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="B71" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3"/>
+      <c r="B72" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="B74" s="13"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="B75" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="B78" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="B79" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="B80" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3"/>
+      <c r="B81" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B83" s="13"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="B84" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="B86" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="B87" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="B88" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3"/>
+      <c r="B89" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A74:B74"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/Modelagem.xlsx
+++ b/Modelagem.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Nova pasta\T14_Logica\Pedro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA1F78-A9E6-49EB-AE06-B24EAAC39C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2065BB7-6657-4FB3-9185-C8B97BB8EF49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="2" xr2:uid="{3DF4FEE4-5CAB-4C9D-AB68-AB1CB0C932BF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" activeTab="4" xr2:uid="{3DF4FEE4-5CAB-4C9D-AB68-AB1CB0C932BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
     <sheet name="SQLServer" sheetId="2" r:id="rId2"/>
     <sheet name="MySql" sheetId="3" r:id="rId3"/>
+    <sheet name="Planilha2" sheetId="4" r:id="rId4"/>
+    <sheet name="Planilha3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="104">
   <si>
     <t>DER</t>
   </si>
@@ -347,6 +349,9 @@
   </si>
   <si>
     <t>timestamp</t>
+  </si>
+  <si>
+    <t>(11) 9 9999-9999</t>
   </si>
 </sst>
 </file>
@@ -1851,10 +1856,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DAB220-43B6-41CC-9DB7-7DD5443FBA36}">
-  <dimension ref="A1:F89"/>
+  <dimension ref="A1:J89"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24:F31"/>
+    <sheetView topLeftCell="A24" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35:B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1865,13 +1870,13 @@
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="13"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="5" t="s">
         <v>4</v>
@@ -1889,7 +1894,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -1909,7 +1914,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="5" t="s">
         <v>6</v>
@@ -1925,7 +1930,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
         <v>26</v>
@@ -1941,7 +1946,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
         <v>27</v>
@@ -1957,7 +1962,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
         <v>7</v>
@@ -1975,7 +1980,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
         <v>8</v>
@@ -1991,7 +1996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
         <v>9</v>
@@ -2006,8 +2011,15 @@
       <c r="F9" s="2" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9">
+        <f>LEN(H9)</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
         <v>86</v>
@@ -2023,7 +2035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
         <v>10</v>
@@ -2039,7 +2051,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
         <v>11</v>
@@ -2055,7 +2067,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
         <v>12</v>
@@ -2071,7 +2083,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
         <v>13</v>
@@ -2087,7 +2099,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
         <v>14</v>
@@ -2103,7 +2115,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
         <v>15</v>
@@ -2791,4 +2803,155 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB32BFDC-57ED-4558-9398-E712DBCC817D}">
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection sqref="A1:A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEC4296-14A6-4A2E-A821-D38E6D12E43E}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="280" zoomScaleNormal="280" workbookViewId="0">
+      <selection sqref="A1:A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>